--- a/data/trans_camb/P16B97-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Estudios-trans_camb.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 7,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,59</t>
+          <t>-5,91; 3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,88</t>
+          <t>-0,36; 4,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,38</t>
+          <t>-4,02; 1,45</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 8,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,63</t>
+          <t>-6,16; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,07</t>
+          <t>-0,36; 4,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,37</t>
+          <t>-4,03; 1,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,0</t>
+          <t>-3,76; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,09; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,9</t>
+          <t>-2,77; 7,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,16</t>
+          <t>-1,99; 8,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,68</t>
+          <t>-1,75; 5,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,99</t>
+          <t>-2,31; 4,73</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 0,0</t>
+          <t>-3,76; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,0</t>
+          <t>-6,09; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,48</t>
+          <t>-2,77; 8,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 8,88</t>
+          <t>-1,99; 9,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,09</t>
+          <t>-1,75; 5,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,37</t>
+          <t>-2,31; 5,0</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 0,0</t>
+          <t>-26,75; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 0,0</t>
+          <t>-15,49; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 0,0</t>
+          <t>-26,75; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 0,0</t>
+          <t>-15,49; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,0</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,0</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,1</t>
+          <t>-1,49; 3,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,44</t>
+          <t>-3,08; 2,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,67</t>
+          <t>-1,12; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,09</t>
+          <t>-2,27; 1,21</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,0</t>
+          <t>-1,79; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,0</t>
+          <t>-3,27; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,21</t>
+          <t>-1,5; 3,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,55</t>
+          <t>-3,09; 2,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,7</t>
+          <t>-1,13; 1,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,09</t>
+          <t>-2,29; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B97-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B97-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 7,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,13</t>
+          <t>-5,56; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,4</t>
+          <t>-0,19; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,45</t>
+          <t>-3,68; 1,29</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,0; 7,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,92</t>
+          <t>-5,58; 2,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,61</t>
+          <t>-0,19; 4,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,47</t>
+          <t>-3,7; 1,32</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,0</t>
+          <t>-3,84; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,0</t>
+          <t>-6,1; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,56</t>
+          <t>-2,61; 7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 8,4</t>
+          <t>-2,23; 8,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,32</t>
+          <t>-1,89; 5,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,73</t>
+          <t>-2,39; 4,54</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,0</t>
+          <t>-3,84; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 0,0</t>
+          <t>-6,1; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 8,21</t>
+          <t>-2,68; 7,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,33</t>
+          <t>-2,23; 9,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,64</t>
+          <t>-1,9; 5,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,0</t>
+          <t>-2,42; 4,78</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 0,0</t>
+          <t>-25,16; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 0,0</t>
+          <t>-17,65; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,75; 0,0</t>
+          <t>-25,16; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 0,0</t>
+          <t>-17,65; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,0</t>
+          <t>-1,7; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,32</t>
+          <t>-1,54; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,24</t>
+          <t>-2,82; 1,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,92</t>
+          <t>-1,31; 1,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,21</t>
+          <t>-2,11; 1,19</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,0</t>
+          <t>-1,7; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,0</t>
+          <t>-2,93; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,44</t>
+          <t>-1,54; 3,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,33</t>
+          <t>-2,84; 1,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,95</t>
+          <t>-1,32; 2,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,23</t>
+          <t>-2,12; 1,22</t>
         </is>
       </c>
     </row>
